--- a/16_18Only.xlsx
+++ b/16_18Only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghan/Documents/PhD/v6_2018/OMBBNetwork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghan/Documents/PhD/GitHubProjects/v6_2018_Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D7ACA9-92D3-634E-9F80-53F9B6E0C4E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2099619-8BBF-BF45-A6A1-81ABD977BD40}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="19160" windowHeight="26720" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3277,8 +3277,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3306,9 +3314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3625,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93117B7-2AF6-0A4A-B4DF-77E51BF42565}">
   <dimension ref="A1:U268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A255" sqref="A254:XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5711,68 +5721,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
+    <row r="33" spans="1:21" s="2" customFormat="1">
+      <c r="A33" s="2">
         <v>313</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>97.32</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>83.6</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="2">
         <v>320</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>12</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="2">
         <v>12.173</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="2">
         <v>0.57609999999999995</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="2">
         <v>0.3533</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="2">
         <v>0.41560000000000002</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="2">
         <v>0.24529999999999999</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6426,68 +6436,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44">
+    <row r="44" spans="1:21" s="2" customFormat="1">
+      <c r="A44" s="2">
         <v>808</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>89.51</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>49.18</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <v>121</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>13</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="2">
         <v>11.298</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="2">
         <v>0.49740000000000001</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="2">
         <v>0.4214</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="2">
         <v>0.4667</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="2">
         <v>0.35210000000000002</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6881,68 +6891,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51">
+    <row r="51" spans="1:21" s="2" customFormat="1">
+      <c r="A51" s="2">
         <v>820</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>86.33</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>46.52</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <v>118</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>14</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="2">
         <v>10.787000000000001</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="2">
         <v>0.52739999999999998</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="2">
         <v>0.45590000000000003</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="2">
         <v>0.50209999999999999</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="2">
         <v>0.39190000000000003</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8766,68 +8776,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
-      <c r="A80">
+    <row r="80" spans="1:21" s="2" customFormat="1">
+      <c r="A80" s="2">
         <v>1211</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>9.7999999999999993E-6</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <v>96.89</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <v>76.27</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <v>300</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <v>13</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="2">
         <v>13.347</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="2">
         <v>0.55659999999999998</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="2">
         <v>0.33889999999999998</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="2">
         <v>0.39829999999999999</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="2">
         <v>0.23419999999999999</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9091,133 +9101,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
-      <c r="A85">
+    <row r="85" spans="1:21" s="2" customFormat="1">
+      <c r="A85" s="2">
         <v>1492</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>1.1E-4</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="2">
         <v>91.7</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>51.42</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="2">
         <v>77</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="2">
         <v>17</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="2">
         <v>0.20699999999999999</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="2">
         <v>12.474</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="2">
         <v>0.33119999999999999</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="2">
         <v>0.30249999999999999</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="2">
         <v>0.34089999999999998</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="2">
         <v>0.25</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86">
+    <row r="86" spans="1:21" s="2" customFormat="1">
+      <c r="A86" s="2">
         <v>1494</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="2">
         <v>92.49</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="2">
         <v>52.77</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="2">
         <v>70</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="2">
         <v>13</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="2">
         <v>2.121</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="2">
         <v>0.76749999999999996</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="2">
         <v>0.76649999999999996</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="2">
         <v>0.80359999999999998</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="2">
         <v>0.61429999999999996</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="2">
         <v>1</v>
       </c>
     </row>
@@ -10781,68 +10791,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
-      <c r="A111">
+    <row r="111" spans="1:21" s="2" customFormat="1">
+      <c r="A111" s="2">
         <v>1639</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="3">
         <v>9.5000000000000005E-6</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="2">
         <v>96.9</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="2">
         <v>77.67</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="2">
         <v>330</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="2">
         <v>10</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="2">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="2">
         <v>12.573</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" s="2">
         <v>0.56540000000000001</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="2">
         <v>0.33710000000000001</v>
       </c>
-      <c r="S111">
+      <c r="S111" s="2">
         <v>0.4012</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="2">
         <v>0.23630000000000001</v>
       </c>
-      <c r="U111">
+      <c r="U111" s="2">
         <v>1</v>
       </c>
     </row>
@@ -12601,198 +12611,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
-      <c r="A139">
+    <row r="139" spans="1:21" s="2" customFormat="1">
+      <c r="A139" s="2">
         <v>2112</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="3">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="2">
         <v>96.74</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="2">
         <v>72.27</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="2">
         <v>268</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="2">
         <v>15</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="2">
         <v>7.4119999999999999</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" s="2">
         <v>0.62649999999999995</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="2">
         <v>0.3508</v>
       </c>
-      <c r="S139">
+      <c r="S139" s="2">
         <v>0.4476</v>
       </c>
-      <c r="T139">
+      <c r="T139" s="2">
         <v>0.26500000000000001</v>
       </c>
-      <c r="U139">
+      <c r="U139" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
-      <c r="A140">
+    <row r="140" spans="1:21" s="2" customFormat="1">
+      <c r="A140" s="2">
         <v>2113</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="3">
         <v>3.7E-9</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="2">
         <v>97.26</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="2">
         <v>79.650000000000006</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="2">
         <v>326</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="2">
         <v>12</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="2">
         <v>11.747999999999999</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="2">
         <v>0.56420000000000003</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="2">
         <v>0.3473</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="2">
         <v>0.41099999999999998</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="2">
         <v>0.2462</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
-      <c r="A141">
+    <row r="141" spans="1:21" s="2" customFormat="1">
+      <c r="A141" s="2">
         <v>2225</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="2">
         <v>87.93</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="2">
         <v>46.67</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="2">
         <v>112</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="2">
         <v>13</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="2">
         <v>0.125</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="2">
         <v>10.439</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="2">
         <v>0.4803</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="2">
         <v>0.41470000000000001</v>
       </c>
-      <c r="S141">
+      <c r="S141" s="2">
         <v>0.46100000000000002</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="2">
         <v>0.3372</v>
       </c>
-      <c r="U141">
+      <c r="U141" s="2">
         <v>1</v>
       </c>
     </row>
@@ -12861,198 +12871,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
-      <c r="A143">
+    <row r="143" spans="1:21" s="2" customFormat="1">
+      <c r="A143" s="2">
         <v>2229</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="2">
         <v>90.53</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="2">
         <v>48.62</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="2">
         <v>77</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="2">
         <v>13</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="2">
         <v>12.355</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="2">
         <v>0.33589999999999998</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="2">
         <v>0.30640000000000001</v>
       </c>
-      <c r="S143">
+      <c r="S143" s="2">
         <v>0.3669</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="U143">
+      <c r="U143" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
-      <c r="A144">
+    <row r="144" spans="1:21" s="2" customFormat="1">
+      <c r="A144" s="2">
         <v>2230</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="2">
         <v>89.44</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="2">
         <v>48.78</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="2">
         <v>108</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="2">
         <v>8</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="2">
         <v>0.04</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="2">
         <v>9.4920000000000009</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="2">
         <v>0.4839</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="2">
         <v>0.41710000000000003</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="2">
         <v>0.45369999999999999</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="2">
         <v>0.34260000000000002</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
-      <c r="A145">
+    <row r="145" spans="1:21" s="2" customFormat="1">
+      <c r="A145" s="2">
         <v>2232</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="3">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="2">
         <v>86.02</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="2">
         <v>46.21</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="2">
         <v>105</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="2">
         <v>12</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="2">
         <v>10.363</v>
       </c>
-      <c r="Q145">
+      <c r="Q145" s="2">
         <v>0.47449999999999998</v>
       </c>
-      <c r="R145">
+      <c r="R145" s="2">
         <v>0.40889999999999999</v>
       </c>
-      <c r="S145">
+      <c r="S145" s="2">
         <v>0.47860000000000003</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="2">
         <v>0.3357</v>
       </c>
-      <c r="U145">
+      <c r="U145" s="2">
         <v>1</v>
       </c>
     </row>
@@ -13186,68 +13196,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
-      <c r="A148">
+    <row r="148" spans="1:21" s="2" customFormat="1">
+      <c r="A148" s="2">
         <v>2250</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>9.7999999999999997E-4</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="2">
         <v>84.58</v>
       </c>
-      <c r="L148">
+      <c r="L148" s="2">
         <v>45.91</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="2">
         <v>82</v>
       </c>
-      <c r="N148">
+      <c r="N148" s="2">
         <v>15</v>
       </c>
-      <c r="O148">
+      <c r="O148" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="P148">
+      <c r="P148" s="2">
         <v>12.891</v>
       </c>
-      <c r="Q148">
+      <c r="Q148" s="2">
         <v>0.32979999999999998</v>
       </c>
-      <c r="R148">
+      <c r="R148" s="2">
         <v>0.29509999999999997</v>
       </c>
-      <c r="S148">
+      <c r="S148" s="2">
         <v>0.33539999999999998</v>
       </c>
-      <c r="T148">
+      <c r="T148" s="2">
         <v>0.25</v>
       </c>
-      <c r="U148">
+      <c r="U148" s="2">
         <v>1</v>
       </c>
     </row>
@@ -13836,68 +13846,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
-      <c r="A158">
+    <row r="158" spans="1:21" s="2" customFormat="1">
+      <c r="A158" s="2">
         <v>2278</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="3">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="2">
         <v>95.64</v>
       </c>
-      <c r="L158">
+      <c r="L158" s="2">
         <v>63.62</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="2">
         <v>280</v>
       </c>
-      <c r="N158">
+      <c r="N158" s="2">
         <v>12</v>
       </c>
-      <c r="O158">
+      <c r="O158" s="2">
         <v>0.04</v>
       </c>
-      <c r="P158">
+      <c r="P158" s="2">
         <v>9.3290000000000006</v>
       </c>
-      <c r="Q158">
+      <c r="Q158" s="2">
         <v>0.64680000000000004</v>
       </c>
-      <c r="R158">
+      <c r="R158" s="2">
         <v>0.44579999999999997</v>
       </c>
-      <c r="S158">
+      <c r="S158" s="2">
         <v>0.53120000000000001</v>
       </c>
-      <c r="T158">
+      <c r="T158" s="2">
         <v>0.35980000000000001</v>
       </c>
-      <c r="U158">
+      <c r="U158" s="2">
         <v>0</v>
       </c>
     </row>
@@ -14941,133 +14951,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
-      <c r="A175">
+    <row r="175" spans="1:21" s="2" customFormat="1">
+      <c r="A175" s="2">
         <v>2538</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="2">
         <v>91.15</v>
       </c>
-      <c r="L175">
+      <c r="L175" s="2">
         <v>51.48</v>
       </c>
-      <c r="M175">
+      <c r="M175" s="2">
         <v>127</v>
       </c>
-      <c r="N175">
+      <c r="N175" s="2">
         <v>17</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="2">
         <v>0.246</v>
       </c>
-      <c r="P175">
+      <c r="P175" s="2">
         <v>9.7919999999999998</v>
       </c>
-      <c r="Q175">
+      <c r="Q175" s="2">
         <v>0.51249999999999996</v>
       </c>
-      <c r="R175">
+      <c r="R175" s="2">
         <v>0.4098</v>
       </c>
-      <c r="S175">
+      <c r="S175" s="2">
         <v>0.46650000000000003</v>
       </c>
-      <c r="T175">
+      <c r="T175" s="2">
         <v>0.32679999999999998</v>
       </c>
-      <c r="U175">
+      <c r="U175" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
-      <c r="A176">
+    <row r="176" spans="1:21" s="2" customFormat="1">
+      <c r="A176" s="2">
         <v>2539</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="3">
         <v>2.8E-5</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="2">
         <v>93.67</v>
       </c>
-      <c r="L176">
+      <c r="L176" s="2">
         <v>54.23</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="2">
         <v>119</v>
       </c>
-      <c r="N176">
+      <c r="N176" s="2">
         <v>12</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="2">
         <v>0.126</v>
       </c>
-      <c r="P176">
+      <c r="P176" s="2">
         <v>2.3660000000000001</v>
       </c>
-      <c r="Q176">
+      <c r="Q176" s="2">
         <v>0.85250000000000004</v>
       </c>
-      <c r="R176">
+      <c r="R176" s="2">
         <v>0.79390000000000005</v>
       </c>
-      <c r="S176">
+      <c r="S176" s="2">
         <v>0.8256</v>
       </c>
-      <c r="T176">
+      <c r="T176" s="2">
         <v>0.63449999999999995</v>
       </c>
-      <c r="U176">
+      <c r="U176" s="2">
         <v>1</v>
       </c>
     </row>
@@ -16501,68 +16511,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
-      <c r="A199">
+    <row r="199" spans="1:21" s="2" customFormat="1">
+      <c r="A199" s="2">
         <v>2716</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="3">
         <v>3.3000000000000002E-6</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="2">
         <v>97.12</v>
       </c>
-      <c r="L199">
+      <c r="L199" s="2">
         <v>79.75</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="2">
         <v>304</v>
       </c>
-      <c r="N199">
+      <c r="N199" s="2">
         <v>13</v>
       </c>
-      <c r="O199">
+      <c r="O199" s="2">
         <v>0.06</v>
       </c>
-      <c r="P199">
+      <c r="P199" s="2">
         <v>10.42</v>
       </c>
-      <c r="Q199">
+      <c r="Q199" s="2">
         <v>0.59379999999999999</v>
       </c>
-      <c r="R199">
+      <c r="R199" s="2">
         <v>0.37819999999999998</v>
       </c>
-      <c r="S199">
+      <c r="S199" s="2">
         <v>0.43830000000000002</v>
       </c>
-      <c r="T199">
+      <c r="T199" s="2">
         <v>0.27379999999999999</v>
       </c>
-      <c r="U199">
+      <c r="U199" s="2">
         <v>1</v>
       </c>
     </row>
@@ -16631,68 +16641,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
-      <c r="A201">
+    <row r="201" spans="1:21" s="2" customFormat="1">
+      <c r="A201" s="2">
         <v>2780</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="3">
         <v>2.8E-5</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H201" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="2">
         <v>93.69</v>
       </c>
-      <c r="L201">
+      <c r="L201" s="2">
         <v>56.35</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="2">
         <v>304</v>
       </c>
-      <c r="N201">
+      <c r="N201" s="2">
         <v>14</v>
       </c>
-      <c r="O201">
+      <c r="O201" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="P201">
+      <c r="P201" s="2">
         <v>10.551</v>
       </c>
-      <c r="Q201">
+      <c r="Q201" s="2">
         <v>0.59930000000000005</v>
       </c>
-      <c r="R201">
+      <c r="R201" s="2">
         <v>0.38950000000000001</v>
       </c>
-      <c r="S201">
+      <c r="S201" s="2">
         <v>0.44190000000000002</v>
       </c>
-      <c r="T201">
+      <c r="T201" s="2">
         <v>0.27489999999999998</v>
       </c>
-      <c r="U201">
+      <c r="U201" s="2">
         <v>1</v>
       </c>
     </row>
@@ -17411,68 +17421,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
-      <c r="A213">
+    <row r="213" spans="1:21" s="2" customFormat="1">
+      <c r="A213" s="2">
         <v>2855</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="3">
         <v>1.0999999999999999E-8</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H213" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J213" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="2">
         <v>97.05</v>
       </c>
-      <c r="L213">
+      <c r="L213" s="2">
         <v>79.97</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="2">
         <v>327</v>
       </c>
-      <c r="N213">
+      <c r="N213" s="2">
         <v>12</v>
       </c>
-      <c r="O213">
+      <c r="O213" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P213">
+      <c r="P213" s="2">
         <v>12.436</v>
       </c>
-      <c r="Q213">
+      <c r="Q213" s="2">
         <v>0.56240000000000001</v>
       </c>
-      <c r="R213">
+      <c r="R213" s="2">
         <v>0.34210000000000002</v>
       </c>
-      <c r="S213">
+      <c r="S213" s="2">
         <v>0.4113</v>
       </c>
-      <c r="T213">
+      <c r="T213" s="2">
         <v>0.25230000000000002</v>
       </c>
-      <c r="U213">
+      <c r="U213" s="2">
         <v>1</v>
       </c>
     </row>
@@ -18191,133 +18201,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
-      <c r="A225">
+    <row r="225" spans="1:21" s="2" customFormat="1">
+      <c r="A225" s="2">
         <v>2937</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="2">
         <v>4.0999999999999999E-4</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H225" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="J225" t="s">
+      <c r="J225" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="2">
         <v>88.31</v>
       </c>
-      <c r="L225">
+      <c r="L225" s="2">
         <v>47.2</v>
       </c>
-      <c r="M225">
+      <c r="M225" s="2">
         <v>119</v>
       </c>
-      <c r="N225">
+      <c r="N225" s="2">
         <v>14</v>
       </c>
-      <c r="O225">
+      <c r="O225" s="2">
         <v>0.128</v>
       </c>
-      <c r="P225">
+      <c r="P225" s="2">
         <v>2.484</v>
       </c>
-      <c r="Q225">
+      <c r="Q225" s="2">
         <v>0.83799999999999997</v>
       </c>
-      <c r="R225">
+      <c r="R225" s="2">
         <v>0.78080000000000005</v>
       </c>
-      <c r="S225">
+      <c r="S225" s="2">
         <v>0.79200000000000004</v>
       </c>
-      <c r="T225">
+      <c r="T225" s="2">
         <v>0.6008</v>
       </c>
-      <c r="U225">
+      <c r="U225" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
-      <c r="A226">
+    <row r="226" spans="1:21" s="2" customFormat="1">
+      <c r="A226" s="2">
         <v>2938</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H226" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J226" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="2">
         <v>84.27</v>
       </c>
-      <c r="L226">
+      <c r="L226" s="2">
         <v>44.55</v>
       </c>
-      <c r="M226">
+      <c r="M226" s="2">
         <v>138</v>
       </c>
-      <c r="N226">
+      <c r="N226" s="2">
         <v>17</v>
       </c>
-      <c r="O226">
+      <c r="O226" s="2">
         <v>0.24</v>
       </c>
-      <c r="P226">
+      <c r="P226" s="2">
         <v>11.177</v>
       </c>
-      <c r="Q226">
+      <c r="Q226" s="2">
         <v>0.49359999999999998</v>
       </c>
-      <c r="R226">
+      <c r="R226" s="2">
         <v>0.38879999999999998</v>
       </c>
-      <c r="S226">
+      <c r="S226" s="2">
         <v>0.44230000000000003</v>
       </c>
-      <c r="T226">
+      <c r="T226" s="2">
         <v>0.30959999999999999</v>
       </c>
-      <c r="U226">
+      <c r="U226" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18581,68 +18591,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
-      <c r="A231">
+    <row r="231" spans="1:21" s="2" customFormat="1">
+      <c r="A231" s="2">
         <v>2955</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="3">
         <v>1.2E-4</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="J231" t="s">
+      <c r="J231" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="2">
         <v>91.58</v>
       </c>
-      <c r="L231">
+      <c r="L231" s="2">
         <v>52.34</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="2">
         <v>131</v>
       </c>
-      <c r="N231">
+      <c r="N231" s="2">
         <v>16</v>
       </c>
-      <c r="O231">
+      <c r="O231" s="2">
         <v>0.30099999999999999</v>
       </c>
-      <c r="P231">
+      <c r="P231" s="2">
         <v>9.9949999999999992</v>
       </c>
-      <c r="Q231">
+      <c r="Q231" s="2">
         <v>0.52529999999999999</v>
       </c>
-      <c r="R231">
+      <c r="R231" s="2">
         <v>0.4224</v>
       </c>
-      <c r="S231">
+      <c r="S231" s="2">
         <v>0.46899999999999997</v>
       </c>
-      <c r="T231">
+      <c r="T231" s="2">
         <v>0.3256</v>
       </c>
-      <c r="U231">
+      <c r="U231" s="2">
         <v>1</v>
       </c>
     </row>
@@ -19816,68 +19826,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
-      <c r="A250">
+    <row r="250" spans="1:21" s="2" customFormat="1">
+      <c r="A250" s="2">
         <v>3151</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="2">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H250" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="J250" t="s">
+      <c r="J250" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="K250">
+      <c r="K250" s="2">
         <v>87.49</v>
       </c>
-      <c r="L250">
+      <c r="L250" s="2">
         <v>47.89</v>
       </c>
-      <c r="M250">
+      <c r="M250" s="2">
         <v>132</v>
       </c>
-      <c r="N250">
+      <c r="N250" s="2">
         <v>13</v>
       </c>
-      <c r="O250">
+      <c r="O250" s="2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="P250">
+      <c r="P250" s="2">
         <v>10.260999999999999</v>
       </c>
-      <c r="Q250">
+      <c r="Q250" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="R250">
+      <c r="R250" s="2">
         <v>0.41830000000000001</v>
       </c>
-      <c r="S250">
+      <c r="S250" s="2">
         <v>0.4788</v>
       </c>
-      <c r="T250">
+      <c r="T250" s="2">
         <v>0.33850000000000002</v>
       </c>
-      <c r="U250">
+      <c r="U250" s="2">
         <v>1</v>
       </c>
     </row>
@@ -20076,133 +20086,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
-      <c r="A254">
+    <row r="254" spans="1:21" s="2" customFormat="1">
+      <c r="A254" s="2">
         <v>3165</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H254" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="K254">
+      <c r="K254" s="2">
         <v>91.12</v>
       </c>
-      <c r="L254">
+      <c r="L254" s="2">
         <v>49.85</v>
       </c>
-      <c r="M254">
+      <c r="M254" s="2">
         <v>131</v>
       </c>
-      <c r="N254">
+      <c r="N254" s="2">
         <v>15</v>
       </c>
-      <c r="O254">
+      <c r="O254" s="2">
         <v>0.23300000000000001</v>
       </c>
-      <c r="P254">
+      <c r="P254" s="2">
         <v>10.057</v>
       </c>
-      <c r="Q254">
+      <c r="Q254" s="2">
         <v>0.52059999999999995</v>
       </c>
-      <c r="R254">
+      <c r="R254" s="2">
         <v>0.4138</v>
       </c>
-      <c r="S254">
+      <c r="S254" s="2">
         <v>0.47670000000000001</v>
       </c>
-      <c r="T254">
+      <c r="T254" s="2">
         <v>0.35659999999999997</v>
       </c>
-      <c r="U254">
+      <c r="U254" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
-      <c r="A255">
+    <row r="255" spans="1:21" s="2" customFormat="1">
+      <c r="A255" s="2">
         <v>3166</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="3">
         <v>7.3999999999999996E-5</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H255" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J255" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="2">
         <v>92.4</v>
       </c>
-      <c r="L255">
+      <c r="L255" s="2">
         <v>51.81</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="2">
         <v>118</v>
       </c>
-      <c r="N255">
+      <c r="N255" s="2">
         <v>17</v>
       </c>
-      <c r="O255">
+      <c r="O255" s="2">
         <v>0.182</v>
       </c>
-      <c r="P255">
+      <c r="P255" s="2">
         <v>2.6669999999999998</v>
       </c>
-      <c r="Q255">
+      <c r="Q255" s="2">
         <v>0.80469999999999997</v>
       </c>
-      <c r="R255">
+      <c r="R255" s="2">
         <v>0.73340000000000005</v>
       </c>
-      <c r="S255">
+      <c r="S255" s="2">
         <v>0.73519999999999996</v>
       </c>
-      <c r="T255">
+      <c r="T255" s="2">
         <v>0.52969999999999995</v>
       </c>
-      <c r="U255">
+      <c r="U255" s="2">
         <v>1</v>
       </c>
     </row>
@@ -20791,133 +20801,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
-      <c r="A265">
+    <row r="265" spans="1:21" s="2" customFormat="1">
+      <c r="A265" s="2">
         <v>3207</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="3">
         <v>4.1000000000000003E-9</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H265" t="s">
+      <c r="H265" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I265" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="J265" t="s">
+      <c r="J265" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="K265">
+      <c r="K265" s="2">
         <v>97.24</v>
       </c>
-      <c r="L265">
+      <c r="L265" s="2">
         <v>78.73</v>
       </c>
-      <c r="M265">
+      <c r="M265" s="2">
         <v>328</v>
       </c>
-      <c r="N265">
+      <c r="N265" s="2">
         <v>12</v>
       </c>
-      <c r="O265">
+      <c r="O265" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="P265">
+      <c r="P265" s="2">
         <v>13.428000000000001</v>
       </c>
-      <c r="Q265">
+      <c r="Q265" s="2">
         <v>0.56630000000000003</v>
       </c>
-      <c r="R265">
+      <c r="R265" s="2">
         <v>0.3473</v>
       </c>
-      <c r="S265">
+      <c r="S265" s="2">
         <v>0.41510000000000002</v>
       </c>
-      <c r="T265">
+      <c r="T265" s="2">
         <v>0.25380000000000003</v>
       </c>
-      <c r="U265">
+      <c r="U265" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
-      <c r="A266">
+    <row r="266" spans="1:21" s="2" customFormat="1">
+      <c r="A266" s="2">
         <v>3225</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="3">
         <v>8.2999999999999999E-9</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H266" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="J266" t="s">
+      <c r="J266" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="K266">
+      <c r="K266" s="2">
         <v>97.11</v>
       </c>
-      <c r="L266">
+      <c r="L266" s="2">
         <v>81.06</v>
       </c>
-      <c r="M266">
+      <c r="M266" s="2">
         <v>330</v>
       </c>
-      <c r="N266">
+      <c r="N266" s="2">
         <v>14</v>
       </c>
-      <c r="O266">
+      <c r="O266" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P266">
+      <c r="P266" s="2">
         <v>12.923</v>
       </c>
-      <c r="Q266">
+      <c r="Q266" s="2">
         <v>0.56669999999999998</v>
       </c>
-      <c r="R266">
+      <c r="R266" s="2">
         <v>0.3382</v>
       </c>
-      <c r="S266">
+      <c r="S266" s="2">
         <v>0.41060000000000002</v>
       </c>
-      <c r="T266">
+      <c r="T266" s="2">
         <v>0.24390000000000001</v>
       </c>
-      <c r="U266">
+      <c r="U266" s="2">
         <v>1</v>
       </c>
     </row>
@@ -20986,68 +20996,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
-      <c r="A268">
+    <row r="268" spans="1:21" s="2" customFormat="1">
+      <c r="A268" s="2">
         <v>3229</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="3">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H268" t="s">
+      <c r="H268" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="J268" t="s">
+      <c r="J268" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="K268">
+      <c r="K268" s="2">
         <v>97.14</v>
       </c>
-      <c r="L268">
+      <c r="L268" s="2">
         <v>80.73</v>
       </c>
-      <c r="M268">
+      <c r="M268" s="2">
         <v>301</v>
       </c>
-      <c r="N268">
+      <c r="N268" s="2">
         <v>14</v>
       </c>
-      <c r="O268">
+      <c r="O268" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P268">
+      <c r="P268" s="2">
         <v>10.214</v>
       </c>
-      <c r="Q268">
+      <c r="Q268" s="2">
         <v>0.59899999999999998</v>
       </c>
-      <c r="R268">
+      <c r="R268" s="2">
         <v>0.39829999999999999</v>
       </c>
-      <c r="S268">
+      <c r="S268" s="2">
         <v>0.45960000000000001</v>
       </c>
-      <c r="T268">
+      <c r="T268" s="2">
         <v>0.29289999999999999</v>
       </c>
-      <c r="U268">
+      <c r="U268" s="2">
         <v>1</v>
       </c>
     </row>
